--- a/sql-ddl-design/Schema Design.xlsx
+++ b/sql-ddl-design/Schema Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\aiden\Code\exercise\sql-ddl-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79309D8-E84B-4E55-9CA2-9E3C3CC15CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BF8EF-CCE6-43FB-8111-7E73F60FFED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical Center" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>visited_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>visited</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>diseases_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +144,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>team</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,7 +216,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result</t>
+    <t>medical center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical_center_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catergory_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_game_referee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +388,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>532562</xdr:colOff>
+      <xdr:colOff>370637</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>85511</xdr:rowOff>
     </xdr:to>
@@ -417,7 +437,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>580103</xdr:colOff>
+      <xdr:colOff>27653</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>85398</xdr:rowOff>
     </xdr:to>
@@ -718,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B13:L29"/>
+  <dimension ref="B13:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,18 +749,19 @@
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,61 +777,64 @@
       <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,66 +844,73 @@
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,32 +921,58 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -927,26 +984,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4C8231-2527-469D-A6B8-2588F5149791}">
-  <dimension ref="B13:L29"/>
+  <dimension ref="B13:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
@@ -960,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>9</v>
@@ -995,7 +1053,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="1"/>
@@ -1005,47 +1063,44 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1055,9 +1110,8 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1067,9 +1121,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1079,14 +1132,16 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,21 +1149,39 @@
         <v>2</v>
       </c>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,30 +1192,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C5E62D-5398-422C-8D67-06D7560ED6A7}">
-  <dimension ref="B18:R28"/>
+  <dimension ref="B18:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -1153,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
@@ -1165,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>9</v>
@@ -1183,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -1239,13 +1313,10 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
@@ -1253,44 +1324,35 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
@@ -1303,7 +1365,6 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1319,7 +1380,6 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1335,10 +1395,35 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
